--- a/Assets/06.Table/SonAbil.xlsx
+++ b/Assets/06.Table/SonAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CAB2C8-E76A-4C23-A130-09D351CA7366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59EABE-F4AB-4F54-9967-92EBF99E2800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="2565" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonAbil" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -508,64 +508,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
